--- a/biology/Zoologie/Ganzhousaurus/Ganzhousaurus.xlsx
+++ b/biology/Zoologie/Ganzhousaurus/Ganzhousaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ganzhousaurus nankangensis
 Ganzhousaurus est un genre éteint de petits dinosaures appartenant à la famille des oviraptoridés. Il vivait à la fin du Crétacé supérieur près de la ville de Nankang (province du Jiangxi) en Chine. Cette ville est placée sous la juridiction de la ville-préfecture de Ganzhou.
-Les deux villes de Ganzhou et de Nankang ont donné leurs noms latinisés à l'espèce type et seule espèce Ganzhousaurus nankangensis, qui a été décrite par Wang et ses collègues en 2013[1].
+Les deux villes de Ganzhou et de Nankang ont donné leurs noms latinisés à l'espèce type et seule espèce Ganzhousaurus nankangensis, qui a été décrite par Wang et ses collègues en 2013.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ganzhousaurus a été découvert dans les « bancs rouges », déposés en environnement continental, de la formation géologique de Nanxiong du bassin de Hongcheng. Ces grès rouges sont datés du Maastrichtien, soit il y a entre 72,1 ± 0,2 et 66,0 Ma (millions d'années).
 </t>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,9 +586,11 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ganzhousaurus partageait son habitat avec au moins cinq autres espèces d'oviraptoridés[2], Banji long, Huanansaurus ganzhouensis, Jiangxisaurus ganzhouensis, Nankangia jiangxiensis et Tongtianlong limosus. Cette diversité a été probablement rendue possible par une répartition des niches écologiques entre ces espèces. Ganzhousaurus, quant à lui, était essentiellement herbivore[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ganzhousaurus partageait son habitat avec au moins cinq autres espèces d'oviraptoridés, Banji long, Huanansaurus ganzhouensis, Jiangxisaurus ganzhouensis, Nankangia jiangxiensis et Tongtianlong limosus. Cette diversité a été probablement rendue possible par une répartition des niches écologiques entre ces espèces. Ganzhousaurus, quant à lui, était essentiellement herbivore.
 </t>
         </is>
       </c>
@@ -601,9 +619,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La phylogénie des oviraptoridés n'est pas encore stabilisée avec des analyses plaçant  Ganzhousaurus dans la sous-famille des oviraptorinés ou dans celle des ingeniinés[1],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phylogénie des oviraptoridés n'est pas encore stabilisée avec des analyses plaçant  Ganzhousaurus dans la sous-famille des oviraptorinés ou dans celle des ingeniinés,.
 </t>
         </is>
       </c>
